--- a/api/v1/module/App/test/sampleapp/content/entity/FieldValidationSample2.xlsx
+++ b/api/v1/module/App/test/sampleapp/content/entity/FieldValidationSample2.xlsx
@@ -33,7 +33,7 @@
     <definedName name="signature">Sheet2!$D$7</definedName>
     <definedName name="survey">Sheet2!$D$8</definedName>
     <definedName name="tags">Sheet2!$D$6</definedName>
-    <definedName name="textarea">Sheet2!$D$5</definedName>
+    <definedName name="textarea">Sheet2!$D$10</definedName>
     <definedName name="textfield">Sheet2!$D$5</definedName>
     <definedName name="time">Sheet2!$D$9:$E$9</definedName>
     <definedName name="url">Sheet2!$D$5</definedName>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="192">
   <si>
     <t>Field Name</t>
   </si>
@@ -673,6 +673,9 @@
   </si>
   <si>
     <t>dateTime2</t>
+  </si>
+  <si>
+    <t>longtext</t>
   </si>
 </sst>
 </file>
@@ -1054,8 +1057,8 @@
   <dimension ref="A1:Q2000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1761,7 +1764,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="J45" t="s">
         <v>48</v>
@@ -2199,7 +2202,7 @@
         <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="J75" t="s">
         <v>48</v>
@@ -2280,7 +2283,7 @@
   <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2369,6 +2372,9 @@
     <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="2:5">
